--- a/Hypotesis Testing Proportion Calculation.xlsx
+++ b/Hypotesis Testing Proportion Calculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3505643-7BA5-4F37-8F43-ACB3CC873217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACB6AAB-FE0B-4AF4-90B9-F7FB9118EB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{FDBE2980-13B5-45FD-9004-65741A2FCDCE}"/>
   </bookViews>
@@ -490,7 +490,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -571,7 +571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -583,10 +583,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -617,50 +617,40 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -980,7 +970,7 @@
   <dimension ref="A2:AG24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N24" sqref="A15:N24"/>
+      <selection activeCell="Q3" sqref="H3:Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1031,7 +1021,7 @@
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
-      <c r="Q3" s="35" t="s">
+      <c r="Q3" s="29" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1047,7 +1037,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>12</v>
@@ -1079,8 +1069,8 @@
       <c r="P4" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="Q4" s="33" t="s">
-        <v>76</v>
+      <c r="Q4" s="27" t="s">
+        <v>75</v>
       </c>
       <c r="R4" s="4"/>
       <c r="S4" s="11" t="s">
@@ -1089,19 +1079,19 @@
       <c r="T4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="U4" s="25" t="s">
+      <c r="U4" s="23" t="s">
         <v>23</v>
       </c>
       <c r="V4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="W4" s="26">
+      <c r="W4" s="24">
         <v>67</v>
       </c>
       <c r="X4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Y4" s="27">
+      <c r="Y4" s="25">
         <f>W4/W5</f>
         <v>0.20679012345679013</v>
       </c>
@@ -1112,13 +1102,13 @@
       <c r="AB4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AC4" s="26" t="s">
+      <c r="AC4" s="24" t="s">
         <v>31</v>
       </c>
       <c r="AD4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AE4" s="26">
+      <c r="AE4" s="24">
         <f>W4+W7</f>
         <v>125</v>
       </c>
@@ -1140,8 +1130,8 @@
       <c r="D5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>16</v>
+      <c r="E5" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>12</v>
@@ -1160,7 +1150,7 @@
       <c r="N5" s="20"/>
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
-      <c r="Q5" s="33"/>
+      <c r="Q5" s="27"/>
       <c r="S5" s="13"/>
       <c r="T5" s="13"/>
       <c r="U5" s="17" t="s">
@@ -1171,7 +1161,7 @@
         <v>324</v>
       </c>
       <c r="X5" s="13"/>
-      <c r="Y5" s="27"/>
+      <c r="Y5" s="25"/>
       <c r="Z5" s="13"/>
       <c r="AA5" s="17"/>
       <c r="AB5" s="13"/>
@@ -1201,14 +1191,14 @@
       <c r="N6" s="20"/>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
-      <c r="Q6" s="33"/>
+      <c r="Q6" s="27"/>
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
       <c r="U6" s="17"/>
       <c r="V6" s="13"/>
       <c r="W6" s="17"/>
       <c r="X6" s="13"/>
-      <c r="Y6" s="27"/>
+      <c r="Y6" s="25"/>
       <c r="Z6" s="13"/>
       <c r="AA6" s="17"/>
       <c r="AB6" s="13"/>
@@ -1229,7 +1219,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>13</v>
@@ -1261,8 +1251,8 @@
       <c r="P7" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="Q7" s="33" t="s">
-        <v>76</v>
+      <c r="Q7" s="27" t="s">
+        <v>75</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>2</v>
@@ -1270,19 +1260,19 @@
       <c r="T7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="U7" s="25" t="s">
+      <c r="U7" s="23" t="s">
         <v>25</v>
       </c>
       <c r="V7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="W7" s="26">
+      <c r="W7" s="24">
         <v>58</v>
       </c>
       <c r="X7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Y7" s="27">
+      <c r="Y7" s="25">
         <f>W7/W8</f>
         <v>0.17846153846153845</v>
       </c>
@@ -1293,13 +1283,13 @@
       <c r="AB7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AC7" s="26" t="s">
+      <c r="AC7" s="24" t="s">
         <v>33</v>
       </c>
       <c r="AD7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AE7" s="26">
+      <c r="AE7" s="24">
         <f>W4+W10</f>
         <v>158</v>
       </c>
@@ -1321,8 +1311,8 @@
       <c r="D8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>16</v>
+      <c r="E8" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>13</v>
@@ -1341,7 +1331,7 @@
       <c r="N8" s="20"/>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
-      <c r="Q8" s="33"/>
+      <c r="Q8" s="27"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
       <c r="U8" s="17" t="s">
@@ -1352,7 +1342,7 @@
         <v>325</v>
       </c>
       <c r="X8" s="13"/>
-      <c r="Y8" s="27"/>
+      <c r="Y8" s="25"/>
       <c r="Z8" s="13"/>
       <c r="AA8" s="17"/>
       <c r="AB8" s="13"/>
@@ -1382,14 +1372,14 @@
       <c r="N9" s="20"/>
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
-      <c r="Q9" s="33"/>
+      <c r="Q9" s="27"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
       <c r="W9" s="17"/>
       <c r="X9" s="13"/>
-      <c r="Y9" s="27"/>
+      <c r="Y9" s="25"/>
       <c r="Z9" s="13"/>
       <c r="AA9" s="17"/>
       <c r="AB9" s="13"/>
@@ -1410,7 +1400,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>14</v>
@@ -1442,8 +1432,8 @@
       <c r="P10" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="Q10" s="33" t="s">
-        <v>76</v>
+      <c r="Q10" s="27" t="s">
+        <v>75</v>
       </c>
       <c r="S10" s="11" t="s">
         <v>3</v>
@@ -1451,19 +1441,19 @@
       <c r="T10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="U10" s="25" t="s">
+      <c r="U10" s="23" t="s">
         <v>26</v>
       </c>
       <c r="V10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="W10" s="26">
+      <c r="W10" s="24">
         <v>91</v>
       </c>
       <c r="X10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Y10" s="27">
+      <c r="Y10" s="25">
         <f>W10/W11</f>
         <v>0.25</v>
       </c>
@@ -1474,13 +1464,13 @@
       <c r="AB10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AC10" s="26" t="s">
+      <c r="AC10" s="24" t="s">
         <v>35</v>
       </c>
       <c r="AD10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AE10" s="26">
+      <c r="AE10" s="24">
         <f>W4+W13</f>
         <v>125</v>
       </c>
@@ -1502,8 +1492,8 @@
       <c r="D11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>16</v>
+      <c r="E11" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>14</v>
@@ -1522,7 +1512,7 @@
       <c r="N11" s="20"/>
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
-      <c r="Q11" s="33"/>
+      <c r="Q11" s="27"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
       <c r="U11" s="17" t="s">
@@ -1533,7 +1523,7 @@
         <v>364</v>
       </c>
       <c r="X11" s="13"/>
-      <c r="Y11" s="27"/>
+      <c r="Y11" s="25"/>
       <c r="Z11" s="13"/>
       <c r="AA11" s="17"/>
       <c r="AB11" s="13"/>
@@ -1563,14 +1553,14 @@
       <c r="N12" s="20"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
-      <c r="Q12" s="33"/>
+      <c r="Q12" s="27"/>
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
       <c r="V12" s="13"/>
       <c r="W12" s="17"/>
       <c r="X12" s="13"/>
-      <c r="Y12" s="27"/>
+      <c r="Y12" s="25"/>
       <c r="Z12" s="13"/>
       <c r="AA12" s="17"/>
       <c r="AB12" s="13"/>
@@ -1591,7 +1581,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>13</v>
@@ -1623,8 +1613,8 @@
       <c r="P13" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="Q13" s="33" t="s">
-        <v>76</v>
+      <c r="Q13" s="27" t="s">
+        <v>75</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>4</v>
@@ -1632,19 +1622,19 @@
       <c r="T13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="U13" s="25" t="s">
+      <c r="U13" s="23" t="s">
         <v>29</v>
       </c>
       <c r="V13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="W13" s="26">
+      <c r="W13" s="24">
         <v>58</v>
       </c>
       <c r="X13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Y13" s="27">
+      <c r="Y13" s="25">
         <f>W13/W14</f>
         <v>0.17846153846153845</v>
       </c>
@@ -1655,13 +1645,13 @@
       <c r="AB13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AC13" s="26" t="s">
+      <c r="AC13" s="24" t="s">
         <v>37</v>
       </c>
       <c r="AD13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AE13" s="26">
+      <c r="AE13" s="24">
         <f>W7+W10</f>
         <v>149</v>
       </c>
@@ -1683,8 +1673,8 @@
       <c r="D14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>16</v>
+      <c r="E14" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>13</v>
@@ -1703,7 +1693,7 @@
       <c r="N14" s="20"/>
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
-      <c r="Q14" s="33"/>
+      <c r="Q14" s="27"/>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
       <c r="U14" s="17" t="s">
@@ -1714,7 +1704,7 @@
         <v>325</v>
       </c>
       <c r="X14" s="13"/>
-      <c r="Y14" s="27"/>
+      <c r="Y14" s="25"/>
       <c r="Z14" s="13"/>
       <c r="AA14" s="17"/>
       <c r="AB14" s="13"/>
@@ -1744,14 +1734,14 @@
       <c r="N15" s="20"/>
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
-      <c r="Q15" s="33"/>
+      <c r="Q15" s="27"/>
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
       <c r="V15" s="13"/>
       <c r="W15" s="17"/>
       <c r="X15" s="13"/>
-      <c r="Y15" s="27"/>
+      <c r="Y15" s="25"/>
       <c r="Z15" s="13"/>
       <c r="AA15" s="17"/>
       <c r="AB15" s="13"/>
@@ -1772,7 +1762,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>14</v>
@@ -1804,16 +1794,16 @@
       <c r="P16" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="Q16" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="31"/>
+      <c r="Q16" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="26"/>
       <c r="Z16" s="13"/>
       <c r="AA16" s="17" t="s">
         <v>0</v>
@@ -1821,13 +1811,13 @@
       <c r="AB16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AC16" s="26" t="s">
+      <c r="AC16" s="24" t="s">
         <v>39</v>
       </c>
       <c r="AD16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AE16" s="26">
+      <c r="AE16" s="24">
         <f>W7+W13</f>
         <v>116</v>
       </c>
@@ -1849,8 +1839,8 @@
       <c r="D17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>16</v>
+      <c r="E17" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>14</v>
@@ -1869,14 +1859,14 @@
       <c r="N17" s="20"/>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
-      <c r="Q17" s="33"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="31"/>
+      <c r="Q17" s="27"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="26"/>
       <c r="Z17" s="13"/>
       <c r="AA17" s="17"/>
       <c r="AB17" s="13"/>
@@ -1906,14 +1896,14 @@
       <c r="N18" s="20"/>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
-      <c r="Q18" s="33"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="31"/>
+      <c r="Q18" s="27"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="26"/>
       <c r="Z18" s="13"/>
       <c r="AA18" s="17"/>
       <c r="AB18" s="13"/>
@@ -1934,7 +1924,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>14</v>
@@ -1966,16 +1956,16 @@
       <c r="P19" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="Q19" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="31"/>
+      <c r="Q19" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="26"/>
       <c r="Z19" s="13"/>
       <c r="AA19" s="17" t="s">
         <v>0</v>
@@ -1983,13 +1973,13 @@
       <c r="AB19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AC19" s="26" t="s">
+      <c r="AC19" s="24" t="s">
         <v>41</v>
       </c>
       <c r="AD19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AE19" s="26">
+      <c r="AE19" s="24">
         <f>W10+W13</f>
         <v>149</v>
       </c>
@@ -2011,8 +2001,8 @@
       <c r="D20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>16</v>
+      <c r="E20" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>14</v>
@@ -2031,14 +2021,14 @@
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
       <c r="P20" s="13"/>
-      <c r="Q20" s="33"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="31"/>
+      <c r="Q20" s="27"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="26"/>
       <c r="Z20" s="13"/>
       <c r="AA20" s="17"/>
       <c r="AB20" s="13"/>
@@ -2068,26 +2058,26 @@
       </c>
     </row>
     <row r="23" spans="2:33" x14ac:dyDescent="0.45">
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="23" t="s">
+      <c r="E23" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="30" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="24" spans="2:33" x14ac:dyDescent="0.45">
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23" t="s">
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="24"/>
+      <c r="G24" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
